--- a/biology/Botanique/Léonard_de_Vinci_(rose)/Léonard_de_Vinci_(rose).xlsx
+++ b/biology/Botanique/Léonard_de_Vinci_(rose)/Léonard_de_Vinci_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9onard_de_Vinci_(rose)</t>
+          <t>Léonard_de_Vinci_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Léonard de Vinci' est un cultivar de rosiers obtenu en 1993 par Alain Meilland et mis au commerce en 1994 par la maison Meilland. Il rend hommage à Léonard de Vinci.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9onard_de_Vinci_(rose)</t>
+          <t>Léonard_de_Vinci_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété possède un buisson érigé et compact pouvant atteindre 150 cm pour une largeur de 90 cm à 120 cm, au feuillage vert brillant[1]. Ses fleurs de 7 cm de diamètre sont de couleur rose, pleines en quartier de rosette, fleurissant en bouquets. Elles ne sont presque pas parfumées[2]. La floraison, généreuse, est remontante.
-Sa zone de rusticité est de 6b à 9b; cette variété supporte donc les hivers froids et est assez résistante aux maladies du rosier[3]. Ses roses résistent bien à la pluie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété possède un buisson érigé et compact pouvant atteindre 150 cm pour une largeur de 90 cm à 120 cm, au feuillage vert brillant. Ses fleurs de 7 cm de diamètre sont de couleur rose, pleines en quartier de rosette, fleurissant en bouquets. Elles ne sont presque pas parfumées. La floraison, généreuse, est remontante.
+Sa zone de rusticité est de 6b à 9b; cette variété supporte donc les hivers froids et est assez résistante aux maladies du rosier. Ses roses résistent bien à la pluie.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9onard_de_Vinci_(rose)</t>
+          <t>Léonard_de_Vinci_(rose)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après le site HelpMeFind.com[4], elle est issue de[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le site HelpMeFind.com, elle est issue de :
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9onard_de_Vinci_(rose)</t>
+          <t>Léonard_de_Vinci_(rose)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille d'or, Monza 1993
 IGA, Stuttgart 1993
 Belfast 1996
-Médaille d'or, La Haye 1997[6]</t>
+Médaille d'or, La Haye 1997</t>
         </is>
       </c>
     </row>
